--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -599,10 +623,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -646,28 +670,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="3">
+      <c r="A18" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="3">
+      <c r="C18" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="3">
+      <c r="D18" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="3">
+      <c r="F18" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="3">
+      <c r="G18" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="3">
+      <c r="H18" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -692,28 +716,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="3">
+      <c r="B20" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="3">
+      <c r="C20" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D20" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="3">
+      <c r="F20" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="3">
+      <c r="G20" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="3">
+      <c r="H20" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="3">
+      <c r="I20" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1033,10 +1057,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1080,28 +1104,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="3">
+      <c r="A33" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1126,28 +1150,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="3">
+      <c r="I35" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1670,10 +1694,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1717,28 +1741,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="3">
+      <c r="A55" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1763,28 +1787,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="3">
+      <c r="B57" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="3">
+      <c r="C57" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="3">
+      <c r="D57" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="3">
+      <c r="E57" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="3">
+      <c r="F57" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="3">
+      <c r="G57" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="3">
+      <c r="H57" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="3">
+      <c r="I57" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2191,10 +2215,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J71" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K71" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2238,28 +2262,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="3">
+      <c r="A73" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="3">
+      <c r="C73" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D73" t="s" s="3">
+      <c r="D73" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2284,28 +2308,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="3">
+      <c r="C75" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="3">
+      <c r="D75" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="3">
+      <c r="I75" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2712,10 +2736,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J89" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="K89" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2759,28 +2783,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="3">
+      <c r="A91" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="3">
+      <c r="B91" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="3">
+      <c r="C91" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D91" t="s" s="3">
+      <c r="D91" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="3">
+      <c r="F91" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="3">
+      <c r="G91" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="3">
+      <c r="H91" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2805,28 +2829,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="3">
+      <c r="C93" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="3">
+      <c r="D93" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="3">
+      <c r="I93" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3523,10 +3547,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="3" t="s">
+      <c r="J117" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="3" t="s">
+      <c r="K117" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3570,28 +3594,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="3">
+      <c r="A119" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="3">
+      <c r="B119" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="3">
+      <c r="C119" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="3">
+      <c r="D119" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="3">
+      <c r="F119" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="3">
+      <c r="G119" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="3">
+      <c r="H119" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3616,28 +3640,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="3">
+      <c r="B121" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="3">
+      <c r="C121" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="3">
+      <c r="D121" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="3">
+      <c r="F121" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="3">
+      <c r="G121" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="3">
+      <c r="H121" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="3">
+      <c r="I121" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3928,10 +3952,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="3" t="s">
+      <c r="J131" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="3" t="s">
+      <c r="K131" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3975,28 +3999,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="3">
+      <c r="A133" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="3">
+      <c r="C133" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D133" t="s" s="3">
+      <c r="D133" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4021,28 +4045,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="3">
+      <c r="I135" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4188,10 +4212,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="3" t="s">
+      <c r="J140" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="3" t="s">
+      <c r="K140" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4235,28 +4259,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="3">
+      <c r="A142" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="3">
+      <c r="B142" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="3">
+      <c r="C142" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="3">
+      <c r="D142" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="3">
+      <c r="F142" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="3">
+      <c r="G142" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="3">
+      <c r="H142" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4281,28 +4305,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="3">
+      <c r="C144" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="3">
+      <c r="D144" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="3">
+      <c r="F144" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="3">
+      <c r="G144" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="3">
+      <c r="H144" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="3">
+      <c r="I144" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4361,10 +4385,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="3" t="s">
+      <c r="J146" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="3" t="s">
+      <c r="K146" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
